--- a/プランナー/壬生/レッドマインだよー.xlsx
+++ b/プランナー/壬生/レッドマインだよー.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="17475" yWindow="90" windowWidth="9675" windowHeight="13005"/>
+    <workbookView xWindow="17475" yWindow="120" windowWidth="9675" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -876,10 +876,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>P：加勢</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>P：サークルの表示</t>
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
@@ -1312,13 +1308,17 @@
       <t>オ</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>P：加勢</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1445,6 +1445,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1480,7 +1488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1552,6 +1560,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1573,7 +1592,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1641,6 +1660,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1952,13 +1977,14 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.375" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickTop="1" thickBot="1">
@@ -1980,7 +2006,7 @@
         <v>7</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75">
@@ -1991,65 +2017,80 @@
         <v>9</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75">
       <c r="B4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C4" s="24">
+        <v>43032</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75">
       <c r="B5" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="24">
+        <v>43036</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75">
       <c r="B6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="24">
+        <v>43041</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75">
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C7" s="24">
+        <v>43046</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75">
       <c r="B8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="24">
+        <v>43046</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>14</v>
@@ -2061,13 +2102,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="24">
+        <v>43032</v>
       </c>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="18.75">
       <c r="B10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="24">
+        <v>43039</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>16</v>
@@ -2076,22 +2123,28 @@
     </row>
     <row r="11" spans="1:14" ht="18.75">
       <c r="B11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="24">
+        <v>43046</v>
       </c>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="18.75">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
       <c r="B12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="24">
+        <v>43039</v>
+      </c>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="18.75">
+      <c r="B13" s="23" t="s">
         <v>94</v>
-      </c>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" ht="18.75">
-      <c r="B13" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="M13" s="5"/>
     </row>
@@ -2100,7 +2153,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C14" s="24">
+        <v>43032</v>
       </c>
       <c r="M14" s="5"/>
     </row>
@@ -2108,49 +2164,70 @@
       <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="C15" s="24">
+        <v>43042</v>
+      </c>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:14" ht="18.75">
       <c r="B16" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C16" s="24">
+        <v>43039</v>
       </c>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:14" ht="18.75">
       <c r="B17" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="24">
+        <v>43031</v>
       </c>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:14" ht="18.75">
       <c r="B18" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C18" s="24">
+        <v>43035</v>
       </c>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:14" ht="18.75">
       <c r="B19" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C19" s="24">
+        <v>43040</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18.75">
       <c r="B20" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C20" s="24">
+        <v>43044</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19.5" thickBot="1">
       <c r="B21" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C21" s="24">
+        <v>43047</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="20.25" thickTop="1" thickBot="1">
@@ -2158,20 +2235,20 @@
         <v>6</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="19.5" thickTop="1">
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>7</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="18.75">
@@ -2179,7 +2256,7 @@
         <v>7</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="18.75">
@@ -2187,7 +2264,7 @@
         <v>7</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="18.75">
@@ -2195,7 +2272,7 @@
         <v>7</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75">
@@ -2203,7 +2280,7 @@
         <v>7</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="18.75">
@@ -2211,127 +2288,127 @@
         <v>5</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>7</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18.75">
       <c r="B29" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75">
       <c r="B30" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="18.75">
       <c r="B31" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="18.75">
       <c r="B32" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="18.75">
       <c r="B33" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="18.75">
       <c r="B34" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="18.75">
       <c r="B35" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="B36" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:14" ht="18.75">
       <c r="B37" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="18.75">
       <c r="B38" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="18.75">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="19.5" thickBot="1">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15" thickTop="1" thickBot="1">
@@ -2343,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="18.75">
@@ -2351,19 +2428,19 @@
         <v>7</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="18.75">
       <c r="M44" s="4"/>
       <c r="N44" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="18.75">
       <c r="M45" s="4"/>
       <c r="N45" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="18.75">
@@ -2372,18 +2449,18 @@
     </row>
     <row r="47" spans="1:14">
       <c r="M47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="19.5" thickBot="1">
       <c r="M48" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="N48" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="N48" s="19" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="49" spans="13:14" ht="15" thickTop="1" thickBot="1">
@@ -2392,22 +2469,22 @@
     </row>
     <row r="50" spans="13:14" ht="14.25" thickTop="1">
       <c r="M50" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="N50" s="20" t="s">
         <v>80</v>
-      </c>
-      <c r="N50" s="20" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="51" spans="13:14">
       <c r="M51" s="2"/>
       <c r="N51" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="13:14">
       <c r="M52" s="2"/>
       <c r="N52" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="13:14">
@@ -2416,22 +2493,22 @@
     </row>
     <row r="54" spans="13:14">
       <c r="M54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N54" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="55" spans="13:14">
       <c r="M55" s="2"/>
       <c r="N55" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="13:14">
       <c r="M56" s="2"/>
       <c r="N56" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="13:14">
@@ -2440,22 +2517,22 @@
     </row>
     <row r="58" spans="13:14">
       <c r="M58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N58" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="N58" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="59" spans="13:14">
       <c r="M59" s="6"/>
       <c r="N59" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="13:14">
       <c r="M60" s="6"/>
       <c r="N60" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="13:14">
@@ -2464,10 +2541,10 @@
     </row>
     <row r="62" spans="13:14" ht="14.25" thickBot="1">
       <c r="M62" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N62" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="N62" s="19" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="63" spans="13:14" ht="14.25" thickTop="1"/>
@@ -2501,5 +2578,6 @@
   <sheetData/>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>